--- a/biology/Virologie/Jean_Cohen/Jean_Cohen.xlsx
+++ b/biology/Virologie/Jean_Cohen/Jean_Cohen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Cohen (29 août 1941[1]–12 novembre 2004[2]), ayant occupé le poste de directeur de recherche à l'INRA, a notamment travaillé sur le Rotavirus[3],[4],[5],[6],[7],[8].
-En 1996, il reçoit le titre de docteur honoris causa de l’université de médecine de Białystok (UMB)[9]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Cohen (29 août 1941–12 novembre 2004), ayant occupé le poste de directeur de recherche à l'INRA, a notamment travaillé sur le Rotavirus.
+En 1996, il reçoit le titre de docteur honoris causa de l’université de médecine de Białystok (UMB)
 </t>
         </is>
       </c>
